--- a/datasets/plant_information.xlsx
+++ b/datasets/plant_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monash\FIT5120\zeronet_web_app\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED222426-C2F0-4174-9A40-3374A22333CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A8232-4165-460A-A643-83DEE68D8E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28905" yWindow="3525" windowWidth="14610" windowHeight="15585" xr2:uid="{1AEFB3BA-9963-4F30-BC85-5734D01CBDF3}"/>
+    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{1AEFB3BA-9963-4F30-BC85-5734D01CBDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="184">
   <si>
     <t>Amaranth- Caudatus Red</t>
   </si>
@@ -450,6 +450,144 @@
   </si>
   <si>
     <t>Beetroot</t>
+  </si>
+  <si>
+    <t>Bitter Melon- Jounpuri</t>
+  </si>
+  <si>
+    <t>Bitter Melon- Long</t>
+  </si>
+  <si>
+    <t>Bitter Melon- Thai</t>
+  </si>
+  <si>
+    <t>Bitter Melon- White</t>
+  </si>
+  <si>
+    <t>Momordica charantia</t>
+  </si>
+  <si>
+    <t>25-28</t>
+  </si>
+  <si>
+    <t>Bitter Melon</t>
+  </si>
+  <si>
+    <t>Rubus x hybrid</t>
+  </si>
+  <si>
+    <t>Blackberry- Thornless (Cane)</t>
+  </si>
+  <si>
+    <t>Blackberry Cane</t>
+  </si>
+  <si>
+    <t>Rubus ursinus x ideaus</t>
+  </si>
+  <si>
+    <t>Boysenberry (Cane)</t>
+  </si>
+  <si>
+    <t>Boysenberry Cane</t>
+  </si>
+  <si>
+    <t>Broad Bean</t>
+  </si>
+  <si>
+    <t>Broad Bean- Aquadulce (Long Pod)</t>
+  </si>
+  <si>
+    <t>Broad Bean- Coles Dwarf</t>
+  </si>
+  <si>
+    <t>Broad Bean- Tripoli</t>
+  </si>
+  <si>
+    <t>Broad Bean- Egyptian</t>
+  </si>
+  <si>
+    <t>Vicia faba</t>
+  </si>
+  <si>
+    <t>6-24</t>
+  </si>
+  <si>
+    <t>Broccoli- Green Sprouting Calabrese</t>
+  </si>
+  <si>
+    <t>Broccoli- Purple Sprouting</t>
+  </si>
+  <si>
+    <t>Broccoli- Spigariello</t>
+  </si>
+  <si>
+    <t>Broccoli- Waltham</t>
+  </si>
+  <si>
+    <t>Chinese Broccoli- Kailaan</t>
+  </si>
+  <si>
+    <t>Rapini</t>
+  </si>
+  <si>
+    <t>Broccoli- Albert</t>
+  </si>
+  <si>
+    <t>Broccoli- Di Ciccio</t>
+  </si>
+  <si>
+    <t>Broccoli- Romanesco</t>
+  </si>
+  <si>
+    <t>Chinese Broccoli- Hong Kong</t>
+  </si>
+  <si>
+    <t>Chinese Broccoli- Jade</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>7-30</t>
+  </si>
+  <si>
+    <t>Brassica oleracea</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-30</t>
+  </si>
+  <si>
+    <t>Brassica oleracea var. italica</t>
+  </si>
+  <si>
+    <t>Brassica oleracea var. alboglabra</t>
+  </si>
+  <si>
+    <t>7-12</t>
+  </si>
+  <si>
+    <t>10-29</t>
+  </si>
+  <si>
+    <t>Brassica rapa ruvo</t>
+  </si>
+  <si>
+    <t>Brussels Sprouts- Long Island Improved</t>
+  </si>
+  <si>
+    <t>Brussels Sprouts- Red</t>
+  </si>
+  <si>
+    <t>Brassica oleracea gemmifera</t>
+  </si>
+  <si>
+    <t>Brussels Sprouts</t>
+  </si>
+  <si>
+    <t>7-25</t>
   </si>
 </sst>
 </file>
@@ -485,9 +623,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,17 +961,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66010FC-8CC1-4417-B8D2-688232B49553}">
-  <dimension ref="A1:Z58"/>
+  <dimension ref="A1:Z81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="33.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" customWidth="1"/>
     <col min="4" max="4" width="10.453125" customWidth="1"/>
     <col min="5" max="5" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
@@ -5496,6 +5636,1843 @@
         <v>0</v>
       </c>
     </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59">
+        <v>2233</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59">
+        <v>15</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I59" t="s">
+        <v>39</v>
+      </c>
+      <c r="J59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" t="s">
+        <v>42</v>
+      </c>
+      <c r="L59">
+        <v>60</v>
+      </c>
+      <c r="M59" t="s">
+        <v>42</v>
+      </c>
+      <c r="N59" t="s">
+        <v>31</v>
+      </c>
+      <c r="O59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P59">
+        <v>75</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>42</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60">
+        <v>2233</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" t="s">
+        <v>39</v>
+      </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" t="s">
+        <v>42</v>
+      </c>
+      <c r="L60">
+        <v>60</v>
+      </c>
+      <c r="M60" t="s">
+        <v>42</v>
+      </c>
+      <c r="N60" t="s">
+        <v>31</v>
+      </c>
+      <c r="O60" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60">
+        <v>75</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>42</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>1</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>144</v>
+      </c>
+      <c r="D61">
+        <v>2233</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I61" t="s">
+        <v>39</v>
+      </c>
+      <c r="J61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61" t="s">
+        <v>42</v>
+      </c>
+      <c r="L61">
+        <v>60</v>
+      </c>
+      <c r="M61" t="s">
+        <v>42</v>
+      </c>
+      <c r="N61" t="s">
+        <v>31</v>
+      </c>
+      <c r="O61" t="s">
+        <v>58</v>
+      </c>
+      <c r="P61">
+        <v>75</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>42</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>1</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" t="s">
+        <v>142</v>
+      </c>
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62">
+        <v>2233</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" t="s">
+        <v>39</v>
+      </c>
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62" t="s">
+        <v>42</v>
+      </c>
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62" t="s">
+        <v>42</v>
+      </c>
+      <c r="N62" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" t="s">
+        <v>58</v>
+      </c>
+      <c r="P62">
+        <v>75</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>42</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>146</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63">
+        <v>2666</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s">
+        <v>42</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I63" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63">
+        <v>200</v>
+      </c>
+      <c r="L63">
+        <v>150</v>
+      </c>
+      <c r="M63">
+        <v>200</v>
+      </c>
+      <c r="N63" t="s">
+        <v>70</v>
+      </c>
+      <c r="O63" t="s">
+        <v>58</v>
+      </c>
+      <c r="P63">
+        <v>420</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>42</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>1</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>150</v>
+      </c>
+      <c r="D64">
+        <v>2749</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s">
+        <v>42</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I64" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64">
+        <v>200</v>
+      </c>
+      <c r="L64">
+        <v>150</v>
+      </c>
+      <c r="M64">
+        <v>200</v>
+      </c>
+      <c r="N64" t="s">
+        <v>70</v>
+      </c>
+      <c r="O64" t="s">
+        <v>58</v>
+      </c>
+      <c r="P64">
+        <v>420</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>42</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <v>0</v>
+      </c>
+      <c r="V64">
+        <v>0</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>1</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65">
+        <v>2235</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65">
+        <v>50</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I65" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65">
+        <v>100</v>
+      </c>
+      <c r="L65">
+        <v>30</v>
+      </c>
+      <c r="M65" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" t="s">
+        <v>70</v>
+      </c>
+      <c r="O65" t="s">
+        <v>32</v>
+      </c>
+      <c r="P65">
+        <v>90</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>42</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66">
+        <v>2235</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66">
+        <v>30</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I66" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66">
+        <v>20</v>
+      </c>
+      <c r="L66">
+        <v>15</v>
+      </c>
+      <c r="M66">
+        <v>90</v>
+      </c>
+      <c r="N66" t="s">
+        <v>70</v>
+      </c>
+      <c r="O66" t="s">
+        <v>32</v>
+      </c>
+      <c r="P66">
+        <v>80</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>42</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67">
+        <v>2235</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67">
+        <v>50</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I67" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" t="s">
+        <v>40</v>
+      </c>
+      <c r="K67">
+        <v>100</v>
+      </c>
+      <c r="L67">
+        <v>30</v>
+      </c>
+      <c r="M67">
+        <v>100</v>
+      </c>
+      <c r="N67" t="s">
+        <v>70</v>
+      </c>
+      <c r="O67" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67">
+        <v>90</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>42</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+      <c r="V67">
+        <v>0</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>1</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>155</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68">
+        <v>2235</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68">
+        <v>30</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="I68" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" t="s">
+        <v>40</v>
+      </c>
+      <c r="K68">
+        <v>20</v>
+      </c>
+      <c r="L68">
+        <v>15</v>
+      </c>
+      <c r="M68">
+        <v>100</v>
+      </c>
+      <c r="N68" t="s">
+        <v>70</v>
+      </c>
+      <c r="O68" t="s">
+        <v>32</v>
+      </c>
+      <c r="P68">
+        <v>80</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>42</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>1</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>158</v>
+      </c>
+      <c r="B69" t="s">
+        <v>174</v>
+      </c>
+      <c r="C69" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69">
+        <v>2236</v>
+      </c>
+      <c r="E69" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69">
+        <v>5</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I69" t="s">
+        <v>56</v>
+      </c>
+      <c r="J69" t="s">
+        <v>130</v>
+      </c>
+      <c r="K69">
+        <v>60</v>
+      </c>
+      <c r="L69">
+        <v>50</v>
+      </c>
+      <c r="M69" t="s">
+        <v>42</v>
+      </c>
+      <c r="N69" t="s">
+        <v>70</v>
+      </c>
+      <c r="O69" t="s">
+        <v>103</v>
+      </c>
+      <c r="P69">
+        <v>70</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>42</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>1</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70">
+        <v>2236</v>
+      </c>
+      <c r="E70" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I70" t="s">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s">
+        <v>130</v>
+      </c>
+      <c r="K70">
+        <v>60</v>
+      </c>
+      <c r="L70">
+        <v>50</v>
+      </c>
+      <c r="M70" t="s">
+        <v>42</v>
+      </c>
+      <c r="N70" t="s">
+        <v>70</v>
+      </c>
+      <c r="O70" t="s">
+        <v>103</v>
+      </c>
+      <c r="P70">
+        <v>130</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>42</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>1</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>160</v>
+      </c>
+      <c r="B71" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71">
+        <v>2236</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71">
+        <v>8</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I71" t="s">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s">
+        <v>130</v>
+      </c>
+      <c r="K71">
+        <v>50</v>
+      </c>
+      <c r="L71">
+        <v>20</v>
+      </c>
+      <c r="M71" t="s">
+        <v>42</v>
+      </c>
+      <c r="N71" t="s">
+        <v>70</v>
+      </c>
+      <c r="O71" t="s">
+        <v>103</v>
+      </c>
+      <c r="P71">
+        <v>40</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>42</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>1</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>169</v>
+      </c>
+      <c r="D72">
+        <v>2236</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72">
+        <v>5</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" t="s">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s">
+        <v>130</v>
+      </c>
+      <c r="K72">
+        <v>60</v>
+      </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+      <c r="M72">
+        <v>60</v>
+      </c>
+      <c r="N72" t="s">
+        <v>70</v>
+      </c>
+      <c r="O72" t="s">
+        <v>103</v>
+      </c>
+      <c r="P72">
+        <v>80</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>42</v>
+      </c>
+      <c r="R72">
+        <v>0</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>0</v>
+      </c>
+      <c r="V72">
+        <v>0</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>1</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" t="s">
+        <v>169</v>
+      </c>
+      <c r="D73">
+        <v>2236</v>
+      </c>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I73" t="s">
+        <v>56</v>
+      </c>
+      <c r="J73" t="s">
+        <v>130</v>
+      </c>
+      <c r="K73">
+        <v>35</v>
+      </c>
+      <c r="L73">
+        <v>20</v>
+      </c>
+      <c r="M73" t="s">
+        <v>42</v>
+      </c>
+      <c r="N73" t="s">
+        <v>31</v>
+      </c>
+      <c r="O73" t="s">
+        <v>103</v>
+      </c>
+      <c r="P73">
+        <v>65</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>42</v>
+      </c>
+      <c r="R73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>0</v>
+      </c>
+      <c r="U73">
+        <v>0</v>
+      </c>
+      <c r="V73">
+        <v>0</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>1</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74">
+        <v>2236</v>
+      </c>
+      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74">
+        <v>5</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" t="s">
+        <v>56</v>
+      </c>
+      <c r="J74" t="s">
+        <v>40</v>
+      </c>
+      <c r="K74">
+        <v>40</v>
+      </c>
+      <c r="L74">
+        <v>20</v>
+      </c>
+      <c r="M74">
+        <v>30</v>
+      </c>
+      <c r="N74" t="s">
+        <v>31</v>
+      </c>
+      <c r="O74" t="s">
+        <v>103</v>
+      </c>
+      <c r="P74">
+        <v>60</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>42</v>
+      </c>
+      <c r="R74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>0</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>0</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>1</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75">
+        <v>2236</v>
+      </c>
+      <c r="E75" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75">
+        <v>5</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" t="s">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s">
+        <v>130</v>
+      </c>
+      <c r="K75">
+        <v>60</v>
+      </c>
+      <c r="L75">
+        <v>50</v>
+      </c>
+      <c r="M75" t="s">
+        <v>42</v>
+      </c>
+      <c r="N75" t="s">
+        <v>70</v>
+      </c>
+      <c r="O75" t="s">
+        <v>103</v>
+      </c>
+      <c r="P75">
+        <v>75</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>42</v>
+      </c>
+      <c r="R75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>1</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D76">
+        <v>2236</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76">
+        <v>5</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" t="s">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s">
+        <v>130</v>
+      </c>
+      <c r="K76">
+        <v>60</v>
+      </c>
+      <c r="L76">
+        <v>50</v>
+      </c>
+      <c r="M76" t="s">
+        <v>42</v>
+      </c>
+      <c r="N76" t="s">
+        <v>70</v>
+      </c>
+      <c r="O76" t="s">
+        <v>103</v>
+      </c>
+      <c r="P76">
+        <v>75</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>42</v>
+      </c>
+      <c r="R76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>0</v>
+      </c>
+      <c r="U76">
+        <v>0</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>1</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77">
+        <v>2236</v>
+      </c>
+      <c r="E77" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I77" t="s">
+        <v>56</v>
+      </c>
+      <c r="J77" t="s">
+        <v>130</v>
+      </c>
+      <c r="K77">
+        <v>60</v>
+      </c>
+      <c r="L77">
+        <v>50</v>
+      </c>
+      <c r="M77" t="s">
+        <v>42</v>
+      </c>
+      <c r="N77" t="s">
+        <v>70</v>
+      </c>
+      <c r="O77" t="s">
+        <v>103</v>
+      </c>
+      <c r="P77">
+        <v>75</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>42</v>
+      </c>
+      <c r="R77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>169</v>
+      </c>
+      <c r="D78">
+        <v>2236</v>
+      </c>
+      <c r="E78" t="s">
+        <v>38</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I78" t="s">
+        <v>56</v>
+      </c>
+      <c r="J78" t="s">
+        <v>130</v>
+      </c>
+      <c r="K78">
+        <v>35</v>
+      </c>
+      <c r="L78">
+        <v>20</v>
+      </c>
+      <c r="M78" t="s">
+        <v>42</v>
+      </c>
+      <c r="N78" t="s">
+        <v>31</v>
+      </c>
+      <c r="O78" t="s">
+        <v>103</v>
+      </c>
+      <c r="P78">
+        <v>50</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>42</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>1</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" t="s">
+        <v>169</v>
+      </c>
+      <c r="D79">
+        <v>2236</v>
+      </c>
+      <c r="E79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I79" t="s">
+        <v>56</v>
+      </c>
+      <c r="J79" t="s">
+        <v>130</v>
+      </c>
+      <c r="K79">
+        <v>35</v>
+      </c>
+      <c r="L79">
+        <v>20</v>
+      </c>
+      <c r="M79" t="s">
+        <v>42</v>
+      </c>
+      <c r="N79" t="s">
+        <v>70</v>
+      </c>
+      <c r="O79" t="s">
+        <v>58</v>
+      </c>
+      <c r="P79">
+        <v>60</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>42</v>
+      </c>
+      <c r="R79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>1</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>179</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80">
+        <v>2237</v>
+      </c>
+      <c r="E80" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80">
+        <v>7</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I80" t="s">
+        <v>56</v>
+      </c>
+      <c r="J80" t="s">
+        <v>130</v>
+      </c>
+      <c r="K80">
+        <v>100</v>
+      </c>
+      <c r="L80">
+        <v>70</v>
+      </c>
+      <c r="M80">
+        <v>80</v>
+      </c>
+      <c r="N80" t="s">
+        <v>70</v>
+      </c>
+      <c r="O80" t="s">
+        <v>32</v>
+      </c>
+      <c r="P80">
+        <v>90</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>42</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>1</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="D81">
+        <v>2237</v>
+      </c>
+      <c r="E81" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81">
+        <v>5</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I81" t="s">
+        <v>56</v>
+      </c>
+      <c r="J81" t="s">
+        <v>130</v>
+      </c>
+      <c r="K81">
+        <v>70</v>
+      </c>
+      <c r="L81">
+        <v>50</v>
+      </c>
+      <c r="M81">
+        <v>80</v>
+      </c>
+      <c r="N81" t="s">
+        <v>70</v>
+      </c>
+      <c r="O81" t="s">
+        <v>32</v>
+      </c>
+      <c r="P81">
+        <v>90</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>42</v>
+      </c>
+      <c r="R81">
+        <v>0</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>0</v>
+      </c>
+      <c r="U81">
+        <v>0</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>1</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/datasets/plant_information.xlsx
+++ b/datasets/plant_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Monash\FIT5120\zeronet_web_app\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921A8232-4165-460A-A643-83DEE68D8E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D1AC75-6A5C-481D-893D-95CC03FF328B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3405" windowWidth="29040" windowHeight="15720" xr2:uid="{1AEFB3BA-9963-4F30-BC85-5734D01CBDF3}"/>
+    <workbookView xWindow="11325" yWindow="0" windowWidth="12780" windowHeight="12885" xr2:uid="{1AEFB3BA-9963-4F30-BC85-5734D01CBDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="212">
   <si>
     <t>Amaranth- Caudatus Red</t>
   </si>
@@ -588,6 +588,90 @@
   </si>
   <si>
     <t>7-25</t>
+  </si>
+  <si>
+    <t>Onion- Amposta Purple</t>
+  </si>
+  <si>
+    <t>Onion- Cipollini</t>
+  </si>
+  <si>
+    <t>Onion- Creamgold</t>
+  </si>
+  <si>
+    <t>Onion- Dolce Sweet</t>
+  </si>
+  <si>
+    <t>Onion- Gladalan Brown</t>
+  </si>
+  <si>
+    <t>Onion- Gladalan White</t>
+  </si>
+  <si>
+    <t>Onion- Long Tropea Red</t>
+  </si>
+  <si>
+    <t>Onion- Pukekohe Long Keeper</t>
+  </si>
+  <si>
+    <t>Onion- Purplette</t>
+  </si>
+  <si>
+    <t>Onion- Red Marksman</t>
+  </si>
+  <si>
+    <t>Onion- Spring Pompei</t>
+  </si>
+  <si>
+    <t>Onion- Yellow Spanish</t>
+  </si>
+  <si>
+    <t>Onion- Australian Brown</t>
+  </si>
+  <si>
+    <t>Onion- Brown Spanish</t>
+  </si>
+  <si>
+    <t>Onion- Calcot</t>
+  </si>
+  <si>
+    <t>Onion- Californian Red</t>
+  </si>
+  <si>
+    <t>Onion- Red Odourless</t>
+  </si>
+  <si>
+    <t>Onion- Red Rippa</t>
+  </si>
+  <si>
+    <t>Bulb Onion</t>
+  </si>
+  <si>
+    <t>Bunching Onion- Evergreen Bunching</t>
+  </si>
+  <si>
+    <t>Bunching Onion- Natsuyo</t>
+  </si>
+  <si>
+    <t>Bunching Onion- Red</t>
+  </si>
+  <si>
+    <t>Bunching Onion- Red Beard</t>
+  </si>
+  <si>
+    <t>Bunching Onion- Straight Leaf</t>
+  </si>
+  <si>
+    <t>Bunching Onion- White Lisbon</t>
+  </si>
+  <si>
+    <t>Bunching Onion- Winter Ishikura</t>
+  </si>
+  <si>
+    <t>Bunching Onion- Fuyuyo</t>
+  </si>
+  <si>
+    <t>Bunching Onion</t>
   </si>
 </sst>
 </file>
@@ -961,11 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66010FC-8CC1-4417-B8D2-688232B49553}">
-  <dimension ref="A1:Z81"/>
+  <dimension ref="A1:Z108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7403,6 +7487,9 @@
       <c r="B81" t="s">
         <v>181</v>
       </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
       <c r="D81">
         <v>2237</v>
       </c>
@@ -7471,6 +7558,222 @@
       </c>
       <c r="Z81">
         <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>184</v>
+      </c>
+      <c r="C82" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C87" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>189</v>
+      </c>
+      <c r="C88" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>190</v>
+      </c>
+      <c r="C89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>191</v>
+      </c>
+      <c r="C90" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>193</v>
+      </c>
+      <c r="C92" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>194</v>
+      </c>
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>195</v>
+      </c>
+      <c r="C94" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>196</v>
+      </c>
+      <c r="C95" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>198</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>206</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>208</v>
+      </c>
+      <c r="C106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>209</v>
+      </c>
+      <c r="C107" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
